--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2520700.201024466</v>
+        <v>2518323.5740771</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>374.3898060419569</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>115.7664925502709</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>278.5525285741176</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>202.6886278631653</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>375.085494967848</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>189.9578218484141</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.49520230524835</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>306.8754044652937</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>155.9626235163787</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>85.45564210299004</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818459</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797039</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.77415159213958</v>
+        <v>114.0764389318068</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505425</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333688</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057983</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1203.388756704967</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1203.388756704967</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>845.1230580982162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>845.1230580982162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.1279287449</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1589.988596769088</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1416.9268625292</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1193.948381723935</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>904.8300442277731</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="W4" t="n">
-        <v>1100.395441389704</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.395441389704</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y4" t="n">
-        <v>1100.395441389704</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1465.289389295559</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="C5" t="n">
-        <v>1096.326872355147</v>
+        <v>741.125668660897</v>
       </c>
       <c r="D5" t="n">
-        <v>738.0611737483969</v>
+        <v>741.125668660897</v>
       </c>
       <c r="E5" t="n">
-        <v>738.0611737483969</v>
+        <v>741.125668660897</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>734.1801679116935</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.428721271371</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.289389295559</v>
+        <v>1110.088185601309</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.0018823909471</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>666.0018823909471</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786114</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1341.986125864408</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="W7" t="n">
-        <v>861.2818647012357</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X7" t="n">
-        <v>861.2818647012357</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.6503472211868</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>990.2034880760496</v>
+        <v>1200.95620828083</v>
       </c>
       <c r="C8" t="n">
-        <v>990.2034880760496</v>
+        <v>831.9936913404188</v>
       </c>
       <c r="D8" t="n">
-        <v>990.2034880760496</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>990.2034880760496</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>579.217583286442</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.342820051861</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.2034880760496</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748035</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624677</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800746</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821642</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,19 +5121,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797755</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750804</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>984.9192356072739</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,25 +5765,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>294.8344935184735</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.0073097921335</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.54000767002776</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194065</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168.0578285897977</v>
+        <v>65.75554125013049</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580149</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187579</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564403</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>814965.3661991092</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
@@ -26332,22 +26332,22 @@
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,34 +26418,34 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731939</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731993</v>
+        <v>8117.312426731958</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731957</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731984</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731939</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731957</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731967</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705700.1846328077</v>
+        <v>-705700.1846328079</v>
       </c>
       <c r="C6" t="n">
         <v>409051.5989431117</v>
       </c>
       <c r="D6" t="n">
-        <v>409051.5989431118</v>
+        <v>409051.5989431117</v>
       </c>
       <c r="E6" t="n">
-        <v>8813.33088456963</v>
+        <v>8778.592959134039</v>
       </c>
       <c r="F6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.0345836802</v>
       </c>
       <c r="G6" t="n">
-        <v>516298.7725091157</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="H6" t="n">
-        <v>516298.7725091157</v>
+        <v>516264.03458368</v>
       </c>
       <c r="I6" t="n">
-        <v>516298.7725091155</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="J6" t="n">
-        <v>348693.5946991333</v>
+        <v>348658.8567736975</v>
       </c>
       <c r="K6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.03458368</v>
       </c>
       <c r="L6" t="n">
-        <v>516298.7725091156</v>
+        <v>516264.0345836799</v>
       </c>
       <c r="M6" t="n">
-        <v>383691.4787801888</v>
+        <v>383656.7408547532</v>
       </c>
       <c r="N6" t="n">
-        <v>516298.7725091159</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="O6" t="n">
-        <v>516298.7725091158</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="P6" t="n">
-        <v>516298.7725091156</v>
+        <v>516264.0345836799</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,28 +26793,28 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>32.48623969975455</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>78.89596781146655</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>7.970469762473385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>204.1874178785462</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>36.46220780510595</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.704638513323431</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.0894510468464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>47.80763715538922</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>255.5850792565753</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181414</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>110.1124749751918</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096869</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>528.9386420741739</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>522.0158803980275</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096361</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066267</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263536</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
